--- a/console/Elastic-Compute/Virtual-Machine/components/select/agSelect.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/components/select/agSelect.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please select availability group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>no_ag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -54,7 +50,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No available availability group in current region, please create new availability group</t>
+    <t>Please select AG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available AG in current region, please create AG.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -439,15 +439,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
